--- a/MainS24-3Y.xlsx
+++ b/MainS24-3Y.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -532,7 +533,7 @@
   <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
